--- a/MVP_02/SHOPPING_LISTS/SAM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SAM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -46,7 +46,7 @@
     <t>QTY.</t>
   </si>
   <si>
-    <t>20-019411</t>
+    <t>13-016706</t>
   </si>
   <si>
     <t>20-019446</t>
@@ -55,9 +55,6 @@
     <t>20-019445</t>
   </si>
   <si>
-    <t>20-019412</t>
-  </si>
-  <si>
     <t>20-019423</t>
   </si>
   <si>
@@ -67,19 +64,16 @@
     <t>20-019459</t>
   </si>
   <si>
-    <t>20-019420</t>
-  </si>
-  <si>
     <t>20-019415</t>
   </si>
   <si>
-    <t>20-019413</t>
+    <t>13-016756</t>
   </si>
   <si>
     <t>20-019447</t>
   </si>
   <si>
-    <t>20-019419</t>
+    <t>13-016797</t>
   </si>
   <si>
     <t>20-019464</t>
@@ -124,6 +118,9 @@
     <t>20-019467</t>
   </si>
   <si>
+    <t>13-016835</t>
+  </si>
+  <si>
     <t>M2.5 X 6 SHCS</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>M2.5 X 10 SHCS</t>
   </si>
   <si>
-    <t>M2.5 X 12 SHCS</t>
-  </si>
-  <si>
     <t>M2.5 X 18 SHCS</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>M3 X 6 SHCS</t>
   </si>
   <si>
-    <t>M3 X 8 SHCS</t>
-  </si>
-  <si>
     <t>M3 X 10 SHCS</t>
   </si>
   <si>
@@ -202,6 +193,9 @@
     <t>4 X 8 DP</t>
   </si>
   <si>
+    <t>M6 X 30 SHCS</t>
+  </si>
+  <si>
     <t>SAM</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>DIN 912 A4 M2.5 X 10</t>
   </si>
   <si>
-    <t>DIN 912 A4 M2.5 X 12</t>
-  </si>
-  <si>
     <t>DIN 912 A4 M2.5 X 18</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>DIN 912 A4 M3 X 6</t>
   </si>
   <si>
-    <t>DIN 912 A4 M3 X 8</t>
-  </si>
-  <si>
     <t>DIN 912 A4 M3 X 10</t>
   </si>
   <si>
@@ -281,6 +269,9 @@
   </si>
   <si>
     <t>DIN 7 A1 4m6 X 8</t>
+  </si>
+  <si>
+    <t>DIN 912 A4 M6 X 30</t>
   </si>
   <si>
     <t>AISI Type 316L stainless steel</t>
@@ -655,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -665,7 +656,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -712,16 +703,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -735,16 +726,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -758,16 +749,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
@@ -781,19 +772,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -804,19 +795,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -827,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -850,19 +841,19 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -873,19 +864,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -896,19 +887,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -919,19 +910,19 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -942,16 +933,16 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I12" s="1">
         <v>8</v>
@@ -965,19 +956,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -988,19 +979,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I14" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1011,19 +1002,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1034,19 +1025,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I16" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1057,16 +1048,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1">
         <v>4</v>
@@ -1080,16 +1071,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
@@ -1103,19 +1094,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1126,19 +1117,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -1149,19 +1140,19 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1172,19 +1163,19 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I22" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1195,19 +1186,19 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I23" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1218,19 +1209,19 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1241,65 +1232,88 @@
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
